--- a/InputData/elec/SES/Seasonal Electricity Storage.xlsx
+++ b/InputData/elec/SES/Seasonal Electricity Storage.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\template_state_3.3\elec\SES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\SES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B0EB96-3ACF-4A95-9AF8-EEB1F5EA6C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4496E88F-B16C-425F-B245-80E8AF3B28EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12645" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="695" yWindow="695" windowWidth="14400" windowHeight="7290" firstSheet="1" activeTab="3" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="SES-capacity" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="6" r:id="rId2"/>
+    <sheet name="SES-capacity" sheetId="2" r:id="rId3"/>
     <sheet name="SES-annual-cycles" sheetId="4" r:id="rId4"/>
     <sheet name="SES-efficiency" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -42,142 +45,142 @@
     <t>SES Seasonal Electricity Storage Capacity</t>
   </si>
   <si>
+    <t>SES Seasonal Electricity Storage Annual Charge/Discharge Cycles</t>
+  </si>
+  <si>
+    <t>SES Seasonal Electricity Storage Round-Trip Efficiency</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>Seasonal Energy Storage Capacity (MWh)</t>
+  </si>
+  <si>
+    <t>Unit: MWh</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Annual charge/discharge cycles refers to full charge and discharge, so if the storage is only drained halfway</t>
+  </si>
+  <si>
+    <t>before being refilled, this counts as half a cycle.</t>
+  </si>
+  <si>
+    <t>Seasonal electricity storage refers to technologies that shift electricity demand between electricity timeslices,</t>
+  </si>
+  <si>
+    <t>such as charging on average spring days and discharging on peak summer days.</t>
+  </si>
+  <si>
+    <t>A technology that charges and discharges frequently, such as grid batteries, is a diurnal, not seasonal, technology in the EPS.</t>
+  </si>
+  <si>
+    <t>"Capacity" here refers to the quantity of electricity that may be stored at one time by seasonal technologies, in MWh, not MW.</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (number of cycles)</t>
+  </si>
+  <si>
+    <t>Typical charge/discharge cycles per year</t>
+  </si>
+  <si>
+    <t>Number of cycles</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (% energy returned)</t>
+  </si>
+  <si>
+    <t>Round-trip efficiency</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Annual Charge/Discharge Cycles</t>
+  </si>
+  <si>
+    <t>Round-Trip Efficiency</t>
+  </si>
+  <si>
+    <t>UN Climate Technology Center</t>
+  </si>
+  <si>
+    <t>undated</t>
+  </si>
+  <si>
+    <t>Compressed Air Energy Storage (CAES)</t>
+  </si>
+  <si>
+    <t>https://www.ctc-n.org/technologies/compressed-air-energy-storage-caes</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>An example of a possible seasonal electricity storage technology is compressed air energy storage (CAES).</t>
+  </si>
+  <si>
+    <t>Figure 3, green areas (for compressed air energy storage)</t>
+  </si>
+  <si>
+    <t>Projecting the Future Levelized Cost of Electricity Storage Technologies</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S254243511830583X</t>
+  </si>
+  <si>
+    <t>Oliver Schmidt, Sylvain Melchior, Adam Hawkes, and Iaian Staffell</t>
+  </si>
+  <si>
+    <t>We use compressed air energy storage as our model for annual charge/discharge cycles and round-trip efficiency (see sources above).</t>
+  </si>
+  <si>
+    <t>Relevant Technologies</t>
+  </si>
+  <si>
+    <t>Notes on Units</t>
+  </si>
+  <si>
+    <t>Pumped hydro can be used as seaonal energy storage, but a more typical operation is around 300 charge/discharge cycles per year,</t>
+  </si>
+  <si>
+    <t>so the EPS categorizes it as a diurnal storage technology.</t>
+  </si>
+  <si>
+    <t>hydrogen is handled through hydrogen-burning power plants and therefore should not be included here.</t>
+  </si>
+  <si>
+    <t>The main alternative to compressed air for seasonal energy storage is hydrogen.  However, in the EPS,</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Figure shows most cost-effective energy storage technology at various charge/discharge cycle counts and duration of charge/discharge</t>
+  </si>
+  <si>
+    <t>For significant quantities of energy stored (high on Y-axis), compressed air (blue) and hydrogen (black) dominate as the two most relevant technologies.</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/energyexplained/electricity/energy-storage-for-electricity-generation.php</t>
+  </si>
+  <si>
+    <t>U.S. Energy Information Administration</t>
+  </si>
+  <si>
+    <t>Electricity explained: Energy storage for electricity generation</t>
+  </si>
+  <si>
+    <t>"Compressed-air storage systems" section</t>
+  </si>
+  <si>
+    <t>Present-Day Capacity</t>
+  </si>
+  <si>
     <t>Colorado</t>
-  </si>
-  <si>
-    <t>SES Seasonal Electricity Storage Annual Charge/Discharge Cycles</t>
-  </si>
-  <si>
-    <t>SES Seasonal Electricity Storage Round-Trip Efficiency</t>
-  </si>
-  <si>
-    <t>Sources:</t>
-  </si>
-  <si>
-    <t>Present-Day Capacity</t>
-  </si>
-  <si>
-    <t>U.S. Energy Information Administration</t>
-  </si>
-  <si>
-    <t>Electricity explained: Energy storage for electricity generation</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/energyexplained/electricity/energy-storage-for-electricity-generation.php</t>
-  </si>
-  <si>
-    <t>"Compressed-air storage systems" section</t>
-  </si>
-  <si>
-    <t>Annual Charge/Discharge Cycles</t>
-  </si>
-  <si>
-    <t>Oliver Schmidt, Sylvain Melchior, Adam Hawkes, and Iaian Staffell</t>
-  </si>
-  <si>
-    <t>Projecting the Future Levelized Cost of Electricity Storage Technologies</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S254243511830583X</t>
-  </si>
-  <si>
-    <t>Figure 3, green areas (for compressed air energy storage)</t>
-  </si>
-  <si>
-    <t>Round-Trip Efficiency</t>
-  </si>
-  <si>
-    <t>UN Climate Technology Center</t>
-  </si>
-  <si>
-    <t>undated</t>
-  </si>
-  <si>
-    <t>Compressed Air Energy Storage (CAES)</t>
-  </si>
-  <si>
-    <t>https://www.ctc-n.org/technologies/compressed-air-energy-storage-caes</t>
-  </si>
-  <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Seasonal electricity storage refers to technologies that shift electricity demand between electricity timeslices,</t>
-  </si>
-  <si>
-    <t>such as charging on average spring days and discharging on peak summer days.</t>
-  </si>
-  <si>
-    <t>A technology that charges and discharges frequently, such as grid batteries, is a diurnal, not seasonal, technology in the EPS.</t>
-  </si>
-  <si>
-    <t>Relevant Technologies</t>
-  </si>
-  <si>
-    <t>An example of a possible seasonal electricity storage technology is compressed air energy storage (CAES).</t>
-  </si>
-  <si>
-    <t>We use compressed air energy storage as our model for annual charge/discharge cycles and round-trip efficiency (see sources above).</t>
-  </si>
-  <si>
-    <t>Pumped hydro can be used as seaonal energy storage, but a more typical operation is around 300 charge/discharge cycles per year,</t>
-  </si>
-  <si>
-    <t>so the EPS categorizes it as a diurnal storage technology.</t>
-  </si>
-  <si>
-    <t>The main alternative to compressed air for seasonal energy storage is hydrogen.  However, in the EPS,</t>
-  </si>
-  <si>
-    <t>hydrogen is handled through hydrogen-burning power plants and therefore should not be included here.</t>
-  </si>
-  <si>
-    <t>Notes on Units</t>
-  </si>
-  <si>
-    <t>"Capacity" here refers to the quantity of electricity that may be stored at one time by seasonal technologies, in MWh, not MW.</t>
-  </si>
-  <si>
-    <t>Annual charge/discharge cycles refers to full charge and discharge, so if the storage is only drained halfway</t>
-  </si>
-  <si>
-    <t>before being refilled, this counts as half a cycle.</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Figure shows most cost-effective energy storage technology at various charge/discharge cycle counts and duration of charge/discharge</t>
-  </si>
-  <si>
-    <t>For significant quantities of energy stored (high on Y-axis), compressed air (blue) and hydrogen (black) dominate as the two most relevant technologies.</t>
-  </si>
-  <si>
-    <t>Unit: MWh</t>
-  </si>
-  <si>
-    <t>Seasonal Energy Storage Capacity (MWh)</t>
-  </si>
-  <si>
-    <t>Unit: dimensionless (number of cycles)</t>
-  </si>
-  <si>
-    <t>Number of cycles</t>
-  </si>
-  <si>
-    <t>Typical charge/discharge cycles per year</t>
-  </si>
-  <si>
-    <t>Unit: dimensionless (% energy returned)</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Round-trip efficiency</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -303,7 +306,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F40266F-F004-0524-0C95-F85BB0187467}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -312,7 +315,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -325,9 +334,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -631,243 +637,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D2354-DEF2-427F-84E2-87F1715F500F}">
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.40625" customWidth="1"/>
+    <col min="2" max="2" width="65.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
-        <v>45194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B7" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B14" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B23" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B23" r:id="rId1" xr:uid="{85AC090C-335B-44B7-AF5A-65B347B77298}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{6C532EDA-3190-404D-B6B8-39BFDD969147}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{133E3D93-A5AE-4F0A-84C5-8E2B52CEF116}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25C513-BECB-45B3-B494-6104E16AFED7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -877,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE28874C-7E97-4F42-9C16-97DC9DFEBC23}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -887,14 +893,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -987,19 +993,19 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:AE2" si="0">$B2</f>
+        <f>$B2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:AE2" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -1117,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4A6EE-605B-4309-9B9A-AA561B7BF258}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1127,23 +1133,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1155,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F6B784-C366-48D5-965D-FBE1A460796A}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1163,23 +1169,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0.85</v>

--- a/InputData/elec/SES/Seasonal Electricity Storage.xlsx
+++ b/InputData/elec/SES/Seasonal Electricity Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\SES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4496E88F-B16C-425F-B245-80E8AF3B28EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98422D9D-3486-4969-BF19-4C91AD1A341A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="695" yWindow="695" windowWidth="14400" windowHeight="7290" firstSheet="1" activeTab="3" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="3" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -642,13 +642,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.40625" customWidth="1"/>
-    <col min="2" max="2" width="65.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,20 +656,20 @@
         <v>46</v>
       </c>
       <c r="C1" s="9">
-        <v>45237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -677,164 +677,164 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -856,9 +856,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -866,12 +866,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -893,12 +893,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -993,7 +993,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1133,13 +1133,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.40625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1169,13 +1169,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.40625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
